--- a/biology/Botanique/Forêt_de_Pilliga/Forêt_de_Pilliga.xlsx
+++ b/biology/Botanique/Forêt_de_Pilliga/Forêt_de_Pilliga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Pilliga</t>
+          <t>Forêt_de_Pilliga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Pilliga est une forêt semi-aride tempérée située au centre-nord de la Nouvelle-Galles du Sud et au sud du Queensland, dans le comté de Narrabri.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Pilliga</t>
+          <t>Forêt_de_Pilliga</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Descriptions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Localisation
 La forêt est située près du village de Pilliga et des villes de Narrabri et de Coonabarabran dans la zone d'administration locale du comté de Narrabri.
@@ -521,12 +535,12 @@
 La flore
 La flore est dominée par le genre Callitris, conifère d'origine locale (Australie et Nouvelle-Calédonie), ainsi que par le Casuarinaceae. Les eucalyptus dominent la canopée dans la forêt.
 La faune terrestre
-La faune est protégée dans cette réserve naturelle, on y trouve notamment l'écureuil volant, le koala, le rat-Kangourou à nez court et le Pseudomys pilligaensis (surnommée la fausse souris du Pilliga[1]) qui est une espèce de rongeurs de la famille des Muridés. Cette espèce endémique  d'Australie est l'un des rares mammifères placentaires qui n'ait pas été introduit par l'homme en Australie.
+La faune est protégée dans cette réserve naturelle, on y trouve notamment l'écureuil volant, le koala, le rat-Kangourou à nez court et le Pseudomys pilligaensis (surnommée la fausse souris du Pilliga) qui est une espèce de rongeurs de la famille des Muridés. Cette espèce endémique  d'Australie est l'un des rares mammifères placentaires qui n'ait pas été introduit par l'homme en Australie.
 Les oiseaux
 Les oiseaux sont représentés par le méliphage peint, le méliphage régent, le diamant à gouttelettes, la perruche turquoisine,  la perruche de Latham, le cacatoès de Latham, l'Œdicnème bridé, la ninoxe aboyeuse, le pomatostome à calotte grise, le séricorne fléché, l'échelet brun et le miro à capuchon.
 Les menaces
 La forêt de Pilliga a subi plusieurs feux de broussailles, souvent liés aux phénomènes météorologiques liés au courant saisonnier chaud d'El Niño. 
-La biodiversité de la forêt est menacée en raison notamment d'un projet gazier[2].
+La biodiversité de la forêt est menacée en raison notamment d'un projet gazier.
 </t>
         </is>
       </c>
